--- a/DESIGN1boom.xlsx
+++ b/DESIGN1boom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pizza\Desktop\stm32pcb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stm32pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{601C2AC2-D849-4BB9-9921-8BC4CC115CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FDC164-40DC-4F90-9D99-470251BFAAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="990" windowWidth="16185" windowHeight="12465"/>
+    <workbookView xWindow="1305" yWindow="0" windowWidth="15570" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DESIGN1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="97">
   <si>
     <t>STM32F103C8T6 Stepper motor drive board  Revised: Wednesday, May 10, 2023</t>
   </si>
@@ -58,18 +58,12 @@
     <t>3.6V</t>
   </si>
   <si>
-    <t>con2r0_2p</t>
-  </si>
-  <si>
     <t>C1,C12</t>
   </si>
   <si>
     <t>100uf/16V</t>
   </si>
   <si>
-    <t>CD4</t>
-  </si>
-  <si>
     <t>C2,C3,C7,C9,C16,C17,C18,C19,C20,C21,C22,C23,C24</t>
   </si>
   <si>
@@ -124,9 +118,6 @@
     <t>FUSE</t>
   </si>
   <si>
-    <t>fuse</t>
-  </si>
-  <si>
     <t>J1</t>
   </si>
   <si>
@@ -142,175 +133,200 @@
     <t>CON3</t>
   </si>
   <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>CON4</t>
+  </si>
+  <si>
+    <t>HEADER 20</t>
+  </si>
+  <si>
+    <t>con2r0_20p</t>
+  </si>
+  <si>
+    <t>LS1</t>
+  </si>
+  <si>
+    <t>BEEP</t>
+  </si>
+  <si>
+    <t>speaker_3mm</t>
+  </si>
+  <si>
+    <t>L1,L2,L4,L5</t>
+  </si>
+  <si>
+    <t>10@100MHZ</t>
+  </si>
+  <si>
+    <t>l0805</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>2.2uH</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>2N2222</t>
+  </si>
+  <si>
+    <t>sot23</t>
+  </si>
+  <si>
+    <t>R1,R3,R5</t>
+  </si>
+  <si>
+    <t>r0603</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>4.7k</t>
+  </si>
+  <si>
+    <t>R6,R7,R14</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>R10,R11</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>SW MAG-SPST/SM</t>
+  </si>
+  <si>
+    <t>sw</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>USB_mrico</t>
+  </si>
+  <si>
+    <t>mrico_5pin</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>AMS1117-3_3</t>
+  </si>
+  <si>
+    <t>SOT-223</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>STM32F103C8T6</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>LB1940T</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>MAX3232</t>
+  </si>
+  <si>
+    <t>sop16</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>32.768Khz</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>8Mhz</t>
+  </si>
+  <si>
+    <t>c7343</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>f1206</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>J4,</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>con2r0_20p_0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>con2r0_3p</t>
-  </si>
-  <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>CON4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>con2r0_4p</t>
-  </si>
-  <si>
-    <t>J4,J5</t>
-  </si>
-  <si>
-    <t>HEADER 20</t>
-  </si>
-  <si>
-    <t>con2r0_20p</t>
-  </si>
-  <si>
-    <t>LS1</t>
-  </si>
-  <si>
-    <t>BEEP</t>
-  </si>
-  <si>
-    <t>speaker_3mm</t>
-  </si>
-  <si>
-    <t>L1,L2,L4,L5</t>
-  </si>
-  <si>
-    <t>10@100MHZ</t>
-  </si>
-  <si>
-    <t>l0805</t>
-  </si>
-  <si>
-    <t>L3</t>
-  </si>
-  <si>
-    <t>2.2uH</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>2N2222</t>
-  </si>
-  <si>
-    <t>sot23</t>
-  </si>
-  <si>
-    <t>R1,R3,R5</t>
-  </si>
-  <si>
-    <t>r0603</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>4.7k</t>
-  </si>
-  <si>
-    <t>R6,R7,R14</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>10K</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>1M</t>
-  </si>
-  <si>
-    <t>R10,R11</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>SW1</t>
-  </si>
-  <si>
-    <t>SW MAG-SPST/SM</t>
-  </si>
-  <si>
-    <t>sw</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>USB_mrico</t>
-  </si>
-  <si>
-    <t>mrico_5pin</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>AMS1117-3_3</t>
-  </si>
-  <si>
-    <t>SOT-223</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>STM32F103C8T6</t>
-  </si>
-  <si>
-    <t>QFN48</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>LB1940T</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>TSSOP20</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>MAX3232</t>
-  </si>
-  <si>
-    <t>sop16</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>32.768Khz</t>
-  </si>
-  <si>
-    <t>us48</t>
-  </si>
-  <si>
-    <t>Y2</t>
-  </si>
-  <si>
-    <t>8Mhz</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQFP48</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC-49SMD</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>YSX1610</t>
+  </si>
+  <si>
+    <t>bat_9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1264,17 +1280,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="50" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1330,8 +1347,8 @@
       <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="E15" t="s">
-        <v>12</v>
+      <c r="E15" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1342,13 +1359,13 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
         <v>13</v>
       </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>15</v>
+      <c r="E16" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1359,13 +1376,13 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1376,13 +1393,13 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1393,13 +1410,13 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1410,13 +1427,13 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1427,13 +1444,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1444,13 +1461,13 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1461,13 +1478,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1478,13 +1495,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1495,13 +1512,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1512,13 +1529,13 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1529,13 +1546,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1543,16 +1560,16 @@
         <v>14</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1563,13 +1580,13 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1580,13 +1597,13 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1597,13 +1614,13 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1614,13 +1631,13 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1631,13 +1648,13 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D33">
         <v>20</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1648,13 +1665,13 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D34">
         <v>51</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1665,13 +1682,13 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1682,13 +1699,13 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1699,13 +1716,13 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1716,13 +1733,13 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1733,13 +1750,13 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1750,13 +1767,13 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1767,13 +1784,13 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D41">
         <v>100</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1784,13 +1801,13 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D42" t="s">
-        <v>73</v>
-      </c>
-      <c r="E42" t="s">
-        <v>74</v>
+        <v>67</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1801,13 +1818,13 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E43" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1818,13 +1835,13 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D44" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1835,13 +1852,13 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D45" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45" t="s">
-        <v>83</v>
+        <v>76</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1852,13 +1869,13 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D46" t="s">
-        <v>85</v>
-      </c>
-      <c r="E46" t="s">
-        <v>86</v>
+        <v>78</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1869,13 +1886,13 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D47" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1886,13 +1903,13 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D48" t="s">
-        <v>91</v>
-      </c>
-      <c r="E48" t="s">
-        <v>92</v>
+        <v>83</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1903,13 +1920,24 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D49" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E49" t="s">
-        <v>92</v>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
